--- a/final_data_pipeline/output/322120_sulfite_elec.xlsx
+++ b/final_data_pipeline/output/322120_sulfite_elec.xlsx
@@ -555,7 +555,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -576,10 +576,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R2">
-        <v>1.800714285714286</v>
+        <v>1.626775542720574</v>
       </c>
       <c r="S2">
-        <v>1.963947368421052</v>
+        <v>1.756382654173023</v>
       </c>
       <c r="T2">
         <v>1.497461014109315</v>
@@ -614,7 +614,7 @@
         <v>25</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -629,10 +629,10 @@
         <v>18784.26205352993</v>
       </c>
       <c r="R3">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="S3">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="T3">
         <v>2.348032756691241</v>
@@ -673,7 +673,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -694,10 +694,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R4">
-        <v>1.800714285714286</v>
+        <v>1.967443877059447</v>
       </c>
       <c r="S4">
-        <v>1.963947368421052</v>
+        <v>2.16691042047532</v>
       </c>
       <c r="T4">
         <v>105.0372584810522</v>
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -747,10 +747,10 @@
         <v>1317595.162813642</v>
       </c>
       <c r="R5">
-        <v>1.280428571428571</v>
+        <v>1.349021684597804</v>
       </c>
       <c r="S5">
-        <v>1.342878787878788</v>
+        <v>1.419425825968325</v>
       </c>
       <c r="T5">
         <v>164.6993953517053</v>
@@ -785,7 +785,7 @@
         <v>26</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L6">
         <v>8000</v>
